--- a/inst/extdata/agwatchlink.xlsx
+++ b/inst/extdata/agwatchlink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\addagwatch\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/add_nds21/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FB951-8E77-4CB9-B139-C3CAD3288D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BC4EE-2C0E-2A4A-AB98-CAEA63CA5CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="398">
   <si>
     <t>state</t>
   </si>
@@ -1183,6 +1183,42 @@
   </si>
   <si>
     <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/gruene_wahlprogramm_nds2017.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdniedersachsenltw22regierungsprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/cduniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/gruneniedersachenltw22wahlprogrammentwurf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fdpniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afdniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fwniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/gesundheitsforschungniedersachsenltw22.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/humanistenniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/linkeniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/parteiniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/piratenniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltniedersachsenltw22wahlprogramm.pdf</t>
   </si>
 </sst>
 </file>
@@ -1500,22 +1536,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E317" sqref="E317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="118.28515625" customWidth="1"/>
+    <col min="5" max="5" width="118.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1549,7 +1585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1566,7 +1602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +1636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1651,7 +1687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +1721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1787,7 +1823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1804,7 +1840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1821,7 +1857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1838,7 +1874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1855,7 +1891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1872,7 +1908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1889,7 +1925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1906,7 +1942,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1923,7 +1959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1940,7 +1976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1957,7 +1993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1974,7 +2010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1991,7 +2027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2008,7 +2044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2025,7 +2061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2042,7 +2078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2059,7 +2095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2076,7 +2112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +2129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2110,7 +2146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2127,7 +2163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2144,7 +2180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2161,7 +2197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2178,7 +2214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2195,7 +2231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2212,7 +2248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2229,7 +2265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2246,7 +2282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2263,7 +2299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2280,7 +2316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2314,7 +2350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2348,7 +2384,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2365,7 +2401,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2382,7 +2418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2399,7 +2435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -2416,7 +2452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2433,7 +2469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2450,7 +2486,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -2467,7 +2503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2484,7 +2520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2501,7 +2537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2518,7 +2554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2535,7 +2571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2552,7 +2588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2569,7 +2605,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2586,7 +2622,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -2603,7 +2639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -2620,7 +2656,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -2637,7 +2673,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -2654,7 +2690,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -2671,7 +2707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -2688,7 +2724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -2705,7 +2741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -2722,7 +2758,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -2739,7 +2775,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -2756,7 +2792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -2773,7 +2809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -2790,7 +2826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -2807,7 +2843,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2824,7 +2860,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -2841,7 +2877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -2858,7 +2894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2875,7 +2911,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -2892,7 +2928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -2909,7 +2945,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -2926,7 +2962,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -2943,7 +2979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -2960,7 +2996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -2977,7 +3013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>117</v>
       </c>
@@ -2994,7 +3030,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -3011,7 +3047,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -3028,7 +3064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -3045,7 +3081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -3062,7 +3098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -3079,7 +3115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -3096,7 +3132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -3113,7 +3149,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -3130,7 +3166,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3147,7 +3183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3164,7 +3200,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3181,7 +3217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -3198,7 +3234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -3215,7 +3251,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -3232,7 +3268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -3249,7 +3285,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>141</v>
       </c>
@@ -3266,7 +3302,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -3283,7 +3319,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -3300,7 +3336,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -3317,7 +3353,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -3334,7 +3370,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -3351,7 +3387,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -3368,7 +3404,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -3385,7 +3421,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -3402,7 +3438,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -3419,7 +3455,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -3436,7 +3472,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -3453,7 +3489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>141</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -3487,7 +3523,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3504,7 +3540,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -3521,7 +3557,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -3538,7 +3574,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -3555,7 +3591,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>141</v>
       </c>
@@ -3572,7 +3608,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -3589,7 +3625,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -3606,7 +3642,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -3623,7 +3659,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>168</v>
       </c>
@@ -3640,7 +3676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>168</v>
       </c>
@@ -3657,7 +3693,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -3674,7 +3710,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -3691,7 +3727,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -3708,7 +3744,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -3725,7 +3761,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -3742,7 +3778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -3759,7 +3795,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -3776,7 +3812,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>168</v>
       </c>
@@ -3793,7 +3829,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -3810,7 +3846,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>168</v>
       </c>
@@ -3827,7 +3863,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>168</v>
       </c>
@@ -3844,7 +3880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -3861,7 +3897,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -3878,7 +3914,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -3895,7 +3931,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -3912,7 +3948,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>189</v>
       </c>
@@ -3929,7 +3965,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>189</v>
       </c>
@@ -3946,7 +3982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -3963,7 +3999,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>189</v>
       </c>
@@ -3980,7 +4016,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>189</v>
       </c>
@@ -3997,7 +4033,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -4014,7 +4050,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>189</v>
       </c>
@@ -4031,7 +4067,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>189</v>
       </c>
@@ -4048,7 +4084,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>189</v>
       </c>
@@ -4065,7 +4101,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>189</v>
       </c>
@@ -4082,7 +4118,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>189</v>
       </c>
@@ -4099,7 +4135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -4116,7 +4152,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>189</v>
       </c>
@@ -4133,7 +4169,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>189</v>
       </c>
@@ -4150,7 +4186,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -4167,7 +4203,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -4184,7 +4220,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -4201,7 +4237,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -4218,7 +4254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -4235,7 +4271,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -4252,7 +4288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>189</v>
       </c>
@@ -4269,7 +4305,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>214</v>
       </c>
@@ -4286,7 +4322,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -4303,7 +4339,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>214</v>
       </c>
@@ -4320,7 +4356,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -4337,7 +4373,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -4354,7 +4390,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -4371,7 +4407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -4388,7 +4424,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -4405,7 +4441,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>214</v>
       </c>
@@ -4422,7 +4458,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>214</v>
       </c>
@@ -4439,7 +4475,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>214</v>
       </c>
@@ -4456,7 +4492,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>214</v>
       </c>
@@ -4473,7 +4509,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -4490,7 +4526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>255</v>
       </c>
@@ -4507,7 +4543,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>255</v>
       </c>
@@ -4524,7 +4560,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>255</v>
       </c>
@@ -4541,7 +4577,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>255</v>
       </c>
@@ -4558,7 +4594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>255</v>
       </c>
@@ -4575,7 +4611,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>255</v>
       </c>
@@ -4592,7 +4628,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>255</v>
       </c>
@@ -4609,7 +4645,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>255</v>
       </c>
@@ -4626,7 +4662,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>255</v>
       </c>
@@ -4643,7 +4679,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>255</v>
       </c>
@@ -4660,7 +4696,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>255</v>
       </c>
@@ -4677,7 +4713,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>255</v>
       </c>
@@ -4694,7 +4730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -4711,7 +4747,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>255</v>
       </c>
@@ -4728,7 +4764,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>255</v>
       </c>
@@ -4745,7 +4781,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>255</v>
       </c>
@@ -4762,7 +4798,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>255</v>
       </c>
@@ -4779,7 +4815,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>255</v>
       </c>
@@ -4796,7 +4832,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>255</v>
       </c>
@@ -4813,7 +4849,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>255</v>
       </c>
@@ -4830,7 +4866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>255</v>
       </c>
@@ -4847,7 +4883,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>255</v>
       </c>
@@ -4864,7 +4900,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>255</v>
       </c>
@@ -4881,7 +4917,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>255</v>
       </c>
@@ -4898,7 +4934,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>255</v>
       </c>
@@ -4915,7 +4951,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>255</v>
       </c>
@@ -4932,7 +4968,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>255</v>
       </c>
@@ -4949,7 +4985,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>255</v>
       </c>
@@ -4966,7 +5002,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>255</v>
       </c>
@@ -4983,7 +5019,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>255</v>
       </c>
@@ -5000,7 +5036,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>255</v>
       </c>
@@ -5017,7 +5053,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>255</v>
       </c>
@@ -5034,7 +5070,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>255</v>
       </c>
@@ -5051,7 +5087,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>255</v>
       </c>
@@ -5068,7 +5104,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>272</v>
       </c>
@@ -5085,7 +5121,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>272</v>
       </c>
@@ -5102,7 +5138,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -5119,7 +5155,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>272</v>
       </c>
@@ -5136,7 +5172,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>272</v>
       </c>
@@ -5153,7 +5189,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>272</v>
       </c>
@@ -5170,7 +5206,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>272</v>
       </c>
@@ -5187,7 +5223,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -5204,7 +5240,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>272</v>
       </c>
@@ -5221,7 +5257,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>272</v>
       </c>
@@ -5238,7 +5274,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>272</v>
       </c>
@@ -5255,7 +5291,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>272</v>
       </c>
@@ -5272,7 +5308,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>272</v>
       </c>
@@ -5289,7 +5325,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>287</v>
       </c>
@@ -5306,7 +5342,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>287</v>
       </c>
@@ -5323,7 +5359,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>287</v>
       </c>
@@ -5340,7 +5376,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -5357,7 +5393,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>287</v>
       </c>
@@ -5374,7 +5410,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>287</v>
       </c>
@@ -5391,7 +5427,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>287</v>
       </c>
@@ -5408,7 +5444,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>287</v>
       </c>
@@ -5425,7 +5461,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>287</v>
       </c>
@@ -5442,7 +5478,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>287</v>
       </c>
@@ -5459,7 +5495,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -5476,7 +5512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>287</v>
       </c>
@@ -5493,7 +5529,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>287</v>
       </c>
@@ -5510,7 +5546,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>287</v>
       </c>
@@ -5527,7 +5563,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>287</v>
       </c>
@@ -5544,7 +5580,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>287</v>
       </c>
@@ -5561,7 +5597,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>287</v>
       </c>
@@ -5578,7 +5614,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>287</v>
       </c>
@@ -5595,7 +5631,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>287</v>
       </c>
@@ -5612,7 +5648,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>287</v>
       </c>
@@ -5629,7 +5665,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>287</v>
       </c>
@@ -5646,7 +5682,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>287</v>
       </c>
@@ -5663,7 +5699,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>287</v>
       </c>
@@ -5680,7 +5716,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>316</v>
       </c>
@@ -5697,7 +5733,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>316</v>
       </c>
@@ -5714,7 +5750,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>316</v>
       </c>
@@ -5731,7 +5767,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>316</v>
       </c>
@@ -5748,7 +5784,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>316</v>
       </c>
@@ -5765,7 +5801,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>316</v>
       </c>
@@ -5782,7 +5818,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>316</v>
       </c>
@@ -5799,7 +5835,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>316</v>
       </c>
@@ -5816,7 +5852,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>316</v>
       </c>
@@ -5833,7 +5869,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>316</v>
       </c>
@@ -5850,7 +5886,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>316</v>
       </c>
@@ -5867,7 +5903,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>316</v>
       </c>
@@ -5884,7 +5920,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>316</v>
       </c>
@@ -5901,7 +5937,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>316</v>
       </c>
@@ -5918,7 +5954,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>345</v>
       </c>
@@ -5935,7 +5971,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>345</v>
       </c>
@@ -5952,7 +5988,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>345</v>
       </c>
@@ -5969,7 +6005,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>345</v>
       </c>
@@ -5986,7 +6022,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>345</v>
       </c>
@@ -6003,7 +6039,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>345</v>
       </c>
@@ -6020,7 +6056,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>345</v>
       </c>
@@ -6037,7 +6073,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>345</v>
       </c>
@@ -6054,7 +6090,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>345</v>
       </c>
@@ -6071,7 +6107,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>345</v>
       </c>
@@ -6088,7 +6124,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>345</v>
       </c>
@@ -6105,7 +6141,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>345</v>
       </c>
@@ -6122,7 +6158,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>345</v>
       </c>
@@ -6139,7 +6175,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>345</v>
       </c>
@@ -6156,7 +6192,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>345</v>
       </c>
@@ -6173,7 +6209,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>345</v>
       </c>
@@ -6190,7 +6226,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>345</v>
       </c>
@@ -6207,7 +6243,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>345</v>
       </c>
@@ -6224,7 +6260,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>345</v>
       </c>
@@ -6241,7 +6277,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>345</v>
       </c>
@@ -6258,7 +6294,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>345</v>
       </c>
@@ -6275,7 +6311,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>345</v>
       </c>
@@ -6292,7 +6328,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>345</v>
       </c>
@@ -6309,7 +6345,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>365</v>
       </c>
@@ -6326,7 +6362,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>365</v>
       </c>
@@ -6343,7 +6379,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>365</v>
       </c>
@@ -6360,7 +6396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>365</v>
       </c>
@@ -6377,7 +6413,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>365</v>
       </c>
@@ -6394,7 +6430,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>365</v>
       </c>
@@ -6411,7 +6447,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>365</v>
       </c>
@@ -6428,7 +6464,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>365</v>
       </c>
@@ -6445,7 +6481,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>365</v>
       </c>
@@ -6462,7 +6498,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>365</v>
       </c>
@@ -6479,7 +6515,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>365</v>
       </c>
@@ -6496,7 +6532,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>365</v>
       </c>
@@ -6513,7 +6549,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>365</v>
       </c>
@@ -6530,7 +6566,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>365</v>
       </c>
@@ -6547,7 +6583,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>365</v>
       </c>
@@ -6564,7 +6600,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>365</v>
       </c>
@@ -6581,7 +6617,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>365</v>
       </c>
@@ -6598,7 +6634,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>365</v>
       </c>
@@ -6615,7 +6651,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>365</v>
       </c>
@@ -6632,7 +6668,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>365</v>
       </c>
@@ -6647,6 +6683,210 @@
       </c>
       <c r="E302" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>214</v>
+      </c>
+      <c r="B303">
+        <v>2022</v>
+      </c>
+      <c r="C303" t="s">
+        <v>30</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>214</v>
+      </c>
+      <c r="B304">
+        <v>2022</v>
+      </c>
+      <c r="C304" t="s">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>214</v>
+      </c>
+      <c r="B305">
+        <v>2022</v>
+      </c>
+      <c r="C305" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>214</v>
+      </c>
+      <c r="B306">
+        <v>2022</v>
+      </c>
+      <c r="C306" t="s">
+        <v>27</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>214</v>
+      </c>
+      <c r="B307">
+        <v>2022</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>214</v>
+      </c>
+      <c r="B308">
+        <v>2022</v>
+      </c>
+      <c r="C308" t="s">
+        <v>224</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>214</v>
+      </c>
+      <c r="B309">
+        <v>2022</v>
+      </c>
+      <c r="C309" t="s">
+        <v>67</v>
+      </c>
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>214</v>
+      </c>
+      <c r="B310">
+        <v>2022</v>
+      </c>
+      <c r="C310" t="s">
+        <v>25</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>214</v>
+      </c>
+      <c r="B311">
+        <v>2022</v>
+      </c>
+      <c r="C311" t="s">
+        <v>32</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>214</v>
+      </c>
+      <c r="B312">
+        <v>2022</v>
+      </c>
+      <c r="C312" t="s">
+        <v>80</v>
+      </c>
+      <c r="D312" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>214</v>
+      </c>
+      <c r="B313">
+        <v>2022</v>
+      </c>
+      <c r="C313" t="s">
+        <v>34</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>214</v>
+      </c>
+      <c r="B314">
+        <v>2022</v>
+      </c>
+      <c r="C314" t="s">
+        <v>31</v>
+      </c>
+      <c r="D314" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/agwatchlink.xlsx
+++ b/inst/extdata/agwatchlink.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/add_nds21/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BC4EE-2C0E-2A4A-AB98-CAEA63CA5CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CEBA2E-E336-DC41-B2D9-C193F54A1A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="435">
   <si>
     <t>state</t>
   </si>
@@ -1219,6 +1219,117 @@
   </si>
   <si>
     <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltniedersachsenltw22wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdwahlprogrammltwbln20210.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/cduwahlprogrammahw2021_0.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bundnis90-diegrunenwahlprogrammagh2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/dielinkewahlprogrammberlin2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afd-lvblnwahlprogramm-2023web-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/wahlprogramm-der-fdp-berlin-zur-abgeordnetenhauswahl-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bergparteiwahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>Bergpartei</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bildetberlinwahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>BildetBerlin</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/die-pinkengrundsatzprogramm.pdf</t>
+  </si>
+  <si>
+    <t>PinkeBündnis21</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/dkgrundsatzprogramm.pdf</t>
+  </si>
+  <si>
+    <t>DKons</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/diebasiswahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/humanistenwahlprogrammahw2023.pdf</t>
+  </si>
+  <si>
+    <t>NeueDemokraten</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/neuedemokratengrundsatzprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/die-parteiwahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/dieurbaneparteiprogramm.pdf</t>
+  </si>
+  <si>
+    <t>Urbane</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/dkpwahlprogrammahw2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/20210811fwberlinwahlprogramm2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/klimalisteberlinwahlprogrammltwbln2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/menschliche-weltwahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>MenschlWelt</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/vorlaufigmieterparteiwahlprogrammltwbln2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/odpparteiprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/gesundheitsforschungwahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/piraten-wp-agh-2021.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/graue-pantherwahlaufruf.pdf</t>
+  </si>
+  <si>
+    <t>Graue</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/sgpwahlaufruf.pdf</t>
+  </si>
+  <si>
+    <t>Todenhöfer</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/teamtodenhoferwahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltwahlprogrammltwbln2023.pdf</t>
   </si>
 </sst>
 </file>
@@ -1536,11 +1647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E314"/>
+  <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E317" sqref="E317"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6889,7 +7000,467 @@
         <v>397</v>
       </c>
     </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>48</v>
+      </c>
+      <c r="B315">
+        <v>2023</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>48</v>
+      </c>
+      <c r="B316">
+        <v>2023</v>
+      </c>
+      <c r="C316" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>48</v>
+      </c>
+      <c r="B317">
+        <v>2023</v>
+      </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>48</v>
+      </c>
+      <c r="B318">
+        <v>2023</v>
+      </c>
+      <c r="C318" t="s">
+        <v>25</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>48</v>
+      </c>
+      <c r="B319">
+        <v>2023</v>
+      </c>
+      <c r="C319" t="s">
+        <v>32</v>
+      </c>
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>48</v>
+      </c>
+      <c r="B320">
+        <v>2023</v>
+      </c>
+      <c r="C320" t="s">
+        <v>26</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>48</v>
+      </c>
+      <c r="B321">
+        <v>2023</v>
+      </c>
+      <c r="C321" t="s">
+        <v>27</v>
+      </c>
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>48</v>
+      </c>
+      <c r="B322">
+        <v>2023</v>
+      </c>
+      <c r="C322" t="s">
+        <v>97</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>48</v>
+      </c>
+      <c r="B323">
+        <v>2023</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>48</v>
+      </c>
+      <c r="B324">
+        <v>2023</v>
+      </c>
+      <c r="C324" t="s">
+        <v>82</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>48</v>
+      </c>
+      <c r="B325">
+        <v>2023</v>
+      </c>
+      <c r="C325" t="s">
+        <v>29</v>
+      </c>
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>48</v>
+      </c>
+      <c r="B326">
+        <v>2023</v>
+      </c>
+      <c r="C326" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+      <c r="E326" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>48</v>
+      </c>
+      <c r="B327">
+        <v>2023</v>
+      </c>
+      <c r="C327" t="s">
+        <v>31</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>48</v>
+      </c>
+      <c r="B328">
+        <v>2023</v>
+      </c>
+      <c r="C328" t="s">
+        <v>405</v>
+      </c>
+      <c r="D328" t="s">
+        <v>7</v>
+      </c>
+      <c r="E328" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>48</v>
+      </c>
+      <c r="B329">
+        <v>2023</v>
+      </c>
+      <c r="C329" t="s">
+        <v>407</v>
+      </c>
+      <c r="D329" t="s">
+        <v>70</v>
+      </c>
+      <c r="E329" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>48</v>
+      </c>
+      <c r="B330">
+        <v>2023</v>
+      </c>
+      <c r="C330" t="s">
+        <v>409</v>
+      </c>
+      <c r="D330" t="s">
+        <v>70</v>
+      </c>
+      <c r="E330" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>48</v>
+      </c>
+      <c r="B331">
+        <v>2023</v>
+      </c>
+      <c r="C331" t="s">
+        <v>411</v>
+      </c>
+      <c r="D331" t="s">
+        <v>70</v>
+      </c>
+      <c r="E331" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>48</v>
+      </c>
+      <c r="B332">
+        <v>2023</v>
+      </c>
+      <c r="C332" t="s">
+        <v>348</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>48</v>
+      </c>
+      <c r="B333">
+        <v>2023</v>
+      </c>
+      <c r="C333" t="s">
+        <v>414</v>
+      </c>
+      <c r="D333" t="s">
+        <v>70</v>
+      </c>
+      <c r="E333" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>48</v>
+      </c>
+      <c r="B334">
+        <v>2023</v>
+      </c>
+      <c r="C334" t="s">
+        <v>80</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>48</v>
+      </c>
+      <c r="B335">
+        <v>2023</v>
+      </c>
+      <c r="C335" t="s">
+        <v>418</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>48</v>
+      </c>
+      <c r="B336">
+        <v>2023</v>
+      </c>
+      <c r="C336" t="s">
+        <v>423</v>
+      </c>
+      <c r="D336" t="s">
+        <v>70</v>
+      </c>
+      <c r="E336" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>48</v>
+      </c>
+      <c r="B337">
+        <v>2023</v>
+      </c>
+      <c r="C337" t="s">
+        <v>67</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>48</v>
+      </c>
+      <c r="B338">
+        <v>2023</v>
+      </c>
+      <c r="C338" t="s">
+        <v>34</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>48</v>
+      </c>
+      <c r="B339">
+        <v>2023</v>
+      </c>
+      <c r="C339" t="s">
+        <v>429</v>
+      </c>
+      <c r="D339" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>48</v>
+      </c>
+      <c r="B340">
+        <v>2023</v>
+      </c>
+      <c r="C340" t="s">
+        <v>430</v>
+      </c>
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>48</v>
+      </c>
+      <c r="B341">
+        <v>2023</v>
+      </c>
+      <c r="C341" t="s">
+        <v>432</v>
+      </c>
+      <c r="D341" t="s">
+        <v>70</v>
+      </c>
+      <c r="E341" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/inst/extdata/agwatchlink.xlsx
+++ b/inst/extdata/agwatchlink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CEBA2E-E336-DC41-B2D9-C193F54A1A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25BB42-1FB2-4BEC-BB55-078C83F4EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="448">
   <si>
     <t>state</t>
   </si>
@@ -1330,6 +1330,45 @@
   </si>
   <si>
     <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltwahlprogrammltwbln2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/regierungsprogramm-cdu-bremen-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spd-bremen-zukunftsprogramm-2023-2027-final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/grunewahlprogrammbremen2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/linkewahlprogrammbremen2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fdp-bremen-wahlprogramm-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/biwwahlprogramm-bremen2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/diebasis-wahlprogramm-2023.pdf</t>
+  </si>
+  <si>
+    <t>MERA25</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fuereinbremendervielenwahlprogrammmera25bremenbuergerschaftswahl.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/wahlprogramm-odp-bremen-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/wahlprogramm-der-partei-fur-schulmedizinische-verjungungsforschung-fur-diel-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/10-punkte-plan-partei-mensch-umwelt-tierschutz-lv-bremenaktuell-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltbremenwahlprogramm2023burgerschaftswahl.pdf</t>
   </si>
 </sst>
 </file>
@@ -1647,22 +1686,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="118.33203125" customWidth="1"/>
+    <col min="5" max="5" width="118.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1866,7 +1905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +1922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +1956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1934,7 +1973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1951,7 +1990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1968,7 +2007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1985,7 +2024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2002,7 +2041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2019,7 +2058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2036,7 +2075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2053,7 +2092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2070,7 +2109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2087,7 +2126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2104,7 +2143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2121,7 +2160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -2138,7 +2177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2155,7 +2194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2172,7 +2211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2189,7 +2228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2206,7 +2245,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2223,7 +2262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2240,7 +2279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2257,7 +2296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2291,7 +2330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2308,7 +2347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2325,7 +2364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2342,7 +2381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2359,7 +2398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2376,7 +2415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2393,7 +2432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2410,7 +2449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2427,7 +2466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2444,7 +2483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2461,7 +2500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2495,7 +2534,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2512,7 +2551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2529,7 +2568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2546,7 +2585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -2563,7 +2602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2580,7 +2619,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2597,7 +2636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -2614,7 +2653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2631,7 +2670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2648,7 +2687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2665,7 +2704,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2682,7 +2721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2699,7 +2738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2716,7 +2755,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2733,7 +2772,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -2750,7 +2789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -2767,7 +2806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -2784,7 +2823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -2801,7 +2840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -2818,7 +2857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -2835,7 +2874,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -2852,7 +2891,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -2869,7 +2908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -2886,7 +2925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -2903,7 +2942,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -2920,7 +2959,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -2937,7 +2976,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -2954,7 +2993,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2971,7 +3010,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -2988,7 +3027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -3005,7 +3044,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -3022,7 +3061,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -3039,7 +3078,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -3056,7 +3095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -3073,7 +3112,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -3090,7 +3129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -3107,7 +3146,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -3124,7 +3163,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>117</v>
       </c>
@@ -3141,7 +3180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -3158,7 +3197,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -3175,7 +3214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -3192,7 +3231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -3209,7 +3248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -3226,7 +3265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -3243,7 +3282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -3260,7 +3299,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -3277,7 +3316,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3294,7 +3333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3311,7 +3350,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3328,7 +3367,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -3345,7 +3384,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -3362,7 +3401,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -3379,7 +3418,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -3396,7 +3435,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>141</v>
       </c>
@@ -3413,7 +3452,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -3430,7 +3469,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -3447,7 +3486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -3464,7 +3503,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -3481,7 +3520,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -3498,7 +3537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -3515,7 +3554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -3532,7 +3571,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -3549,7 +3588,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -3566,7 +3605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -3583,7 +3622,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -3600,7 +3639,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>141</v>
       </c>
@@ -3617,7 +3656,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -3634,7 +3673,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3651,7 +3690,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -3668,7 +3707,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -3685,7 +3724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -3702,7 +3741,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>141</v>
       </c>
@@ -3719,7 +3758,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -3736,7 +3775,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -3753,7 +3792,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -3770,7 +3809,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>168</v>
       </c>
@@ -3787,7 +3826,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>168</v>
       </c>
@@ -3804,7 +3843,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -3821,7 +3860,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -3838,7 +3877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -3855,7 +3894,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -3872,7 +3911,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -3889,7 +3928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -3906,7 +3945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -3923,7 +3962,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>168</v>
       </c>
@@ -3940,7 +3979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -3957,7 +3996,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>168</v>
       </c>
@@ -3974,7 +4013,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>168</v>
       </c>
@@ -3991,7 +4030,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -4008,7 +4047,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -4025,7 +4064,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -4042,7 +4081,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -4059,7 +4098,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>189</v>
       </c>
@@ -4076,7 +4115,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>189</v>
       </c>
@@ -4093,7 +4132,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -4110,7 +4149,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>189</v>
       </c>
@@ -4127,7 +4166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>189</v>
       </c>
@@ -4144,7 +4183,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -4161,7 +4200,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
@@ -4178,7 +4217,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>189</v>
       </c>
@@ -4195,7 +4234,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>189</v>
       </c>
@@ -4212,7 +4251,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>189</v>
       </c>
@@ -4229,7 +4268,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>189</v>
       </c>
@@ -4246,7 +4285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -4263,7 +4302,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>189</v>
       </c>
@@ -4280,7 +4319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>189</v>
       </c>
@@ -4297,7 +4336,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -4314,7 +4353,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -4331,7 +4370,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -4348,7 +4387,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -4365,7 +4404,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -4382,7 +4421,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -4399,7 +4438,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>189</v>
       </c>
@@ -4416,7 +4455,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>214</v>
       </c>
@@ -4433,7 +4472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -4450,7 +4489,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>214</v>
       </c>
@@ -4467,7 +4506,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -4484,7 +4523,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -4501,7 +4540,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -4518,7 +4557,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -4535,7 +4574,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -4552,7 +4591,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>214</v>
       </c>
@@ -4569,7 +4608,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>214</v>
       </c>
@@ -4586,7 +4625,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>214</v>
       </c>
@@ -4603,7 +4642,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>214</v>
       </c>
@@ -4620,7 +4659,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -4637,7 +4676,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>255</v>
       </c>
@@ -4654,7 +4693,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>255</v>
       </c>
@@ -4671,7 +4710,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>255</v>
       </c>
@@ -4688,7 +4727,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>255</v>
       </c>
@@ -4705,7 +4744,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>255</v>
       </c>
@@ -4722,7 +4761,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>255</v>
       </c>
@@ -4739,7 +4778,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>255</v>
       </c>
@@ -4756,7 +4795,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>255</v>
       </c>
@@ -4773,7 +4812,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>255</v>
       </c>
@@ -4790,7 +4829,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>255</v>
       </c>
@@ -4807,7 +4846,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>255</v>
       </c>
@@ -4824,7 +4863,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>255</v>
       </c>
@@ -4841,7 +4880,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -4858,7 +4897,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>255</v>
       </c>
@@ -4875,7 +4914,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>255</v>
       </c>
@@ -4892,7 +4931,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>255</v>
       </c>
@@ -4909,7 +4948,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>255</v>
       </c>
@@ -4926,7 +4965,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>255</v>
       </c>
@@ -4943,7 +4982,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>255</v>
       </c>
@@ -4960,7 +4999,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>255</v>
       </c>
@@ -4977,7 +5016,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>255</v>
       </c>
@@ -4994,7 +5033,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>255</v>
       </c>
@@ -5011,7 +5050,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>255</v>
       </c>
@@ -5028,7 +5067,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>255</v>
       </c>
@@ -5045,7 +5084,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>255</v>
       </c>
@@ -5062,7 +5101,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>255</v>
       </c>
@@ -5079,7 +5118,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>255</v>
       </c>
@@ -5096,7 +5135,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>255</v>
       </c>
@@ -5113,7 +5152,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>255</v>
       </c>
@@ -5130,7 +5169,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>255</v>
       </c>
@@ -5147,7 +5186,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>255</v>
       </c>
@@ -5164,7 +5203,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>255</v>
       </c>
@@ -5181,7 +5220,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>255</v>
       </c>
@@ -5198,7 +5237,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>255</v>
       </c>
@@ -5215,7 +5254,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>272</v>
       </c>
@@ -5232,7 +5271,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>272</v>
       </c>
@@ -5249,7 +5288,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -5266,7 +5305,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>272</v>
       </c>
@@ -5283,7 +5322,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>272</v>
       </c>
@@ -5300,7 +5339,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>272</v>
       </c>
@@ -5317,7 +5356,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>272</v>
       </c>
@@ -5334,7 +5373,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -5351,7 +5390,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>272</v>
       </c>
@@ -5368,7 +5407,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>272</v>
       </c>
@@ -5385,7 +5424,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>272</v>
       </c>
@@ -5402,7 +5441,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>272</v>
       </c>
@@ -5419,7 +5458,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>272</v>
       </c>
@@ -5436,7 +5475,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>287</v>
       </c>
@@ -5453,7 +5492,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>287</v>
       </c>
@@ -5470,7 +5509,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>287</v>
       </c>
@@ -5487,7 +5526,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -5504,7 +5543,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>287</v>
       </c>
@@ -5521,7 +5560,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>287</v>
       </c>
@@ -5538,7 +5577,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>287</v>
       </c>
@@ -5555,7 +5594,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>287</v>
       </c>
@@ -5572,7 +5611,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>287</v>
       </c>
@@ -5589,7 +5628,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>287</v>
       </c>
@@ -5606,7 +5645,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -5623,7 +5662,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>287</v>
       </c>
@@ -5640,7 +5679,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>287</v>
       </c>
@@ -5657,7 +5696,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>287</v>
       </c>
@@ -5674,7 +5713,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>287</v>
       </c>
@@ -5691,7 +5730,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>287</v>
       </c>
@@ -5708,7 +5747,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>287</v>
       </c>
@@ -5725,7 +5764,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>287</v>
       </c>
@@ -5742,7 +5781,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>287</v>
       </c>
@@ -5759,7 +5798,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>287</v>
       </c>
@@ -5776,7 +5815,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>287</v>
       </c>
@@ -5793,7 +5832,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>287</v>
       </c>
@@ -5810,7 +5849,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>287</v>
       </c>
@@ -5827,7 +5866,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>316</v>
       </c>
@@ -5844,7 +5883,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>316</v>
       </c>
@@ -5861,7 +5900,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>316</v>
       </c>
@@ -5878,7 +5917,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>316</v>
       </c>
@@ -5895,7 +5934,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>316</v>
       </c>
@@ -5912,7 +5951,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>316</v>
       </c>
@@ -5929,7 +5968,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>316</v>
       </c>
@@ -5946,7 +5985,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>316</v>
       </c>
@@ -5963,7 +6002,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>316</v>
       </c>
@@ -5980,7 +6019,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>316</v>
       </c>
@@ -5997,7 +6036,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>316</v>
       </c>
@@ -6014,7 +6053,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>316</v>
       </c>
@@ -6031,7 +6070,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>316</v>
       </c>
@@ -6048,7 +6087,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>316</v>
       </c>
@@ -6065,7 +6104,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>345</v>
       </c>
@@ -6082,7 +6121,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>345</v>
       </c>
@@ -6099,7 +6138,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>345</v>
       </c>
@@ -6116,7 +6155,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>345</v>
       </c>
@@ -6133,7 +6172,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>345</v>
       </c>
@@ -6150,7 +6189,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>345</v>
       </c>
@@ -6167,7 +6206,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>345</v>
       </c>
@@ -6184,7 +6223,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>345</v>
       </c>
@@ -6201,7 +6240,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>345</v>
       </c>
@@ -6218,7 +6257,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>345</v>
       </c>
@@ -6235,7 +6274,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>345</v>
       </c>
@@ -6252,7 +6291,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>345</v>
       </c>
@@ -6269,7 +6308,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>345</v>
       </c>
@@ -6286,7 +6325,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>345</v>
       </c>
@@ -6303,7 +6342,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>345</v>
       </c>
@@ -6320,7 +6359,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>345</v>
       </c>
@@ -6337,7 +6376,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>345</v>
       </c>
@@ -6354,7 +6393,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>345</v>
       </c>
@@ -6371,7 +6410,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>345</v>
       </c>
@@ -6388,7 +6427,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>345</v>
       </c>
@@ -6405,7 +6444,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>345</v>
       </c>
@@ -6422,7 +6461,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>345</v>
       </c>
@@ -6439,7 +6478,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>345</v>
       </c>
@@ -6456,7 +6495,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>365</v>
       </c>
@@ -6473,7 +6512,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>365</v>
       </c>
@@ -6490,7 +6529,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>365</v>
       </c>
@@ -6507,7 +6546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>365</v>
       </c>
@@ -6524,7 +6563,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>365</v>
       </c>
@@ -6541,7 +6580,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>365</v>
       </c>
@@ -6558,7 +6597,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>365</v>
       </c>
@@ -6575,7 +6614,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>365</v>
       </c>
@@ -6592,7 +6631,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>365</v>
       </c>
@@ -6609,7 +6648,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>365</v>
       </c>
@@ -6626,7 +6665,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>365</v>
       </c>
@@ -6643,7 +6682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>365</v>
       </c>
@@ -6660,7 +6699,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>365</v>
       </c>
@@ -6677,7 +6716,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>365</v>
       </c>
@@ -6694,7 +6733,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>365</v>
       </c>
@@ -6711,7 +6750,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>365</v>
       </c>
@@ -6728,7 +6767,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>365</v>
       </c>
@@ -6745,7 +6784,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>365</v>
       </c>
@@ -6762,7 +6801,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>365</v>
       </c>
@@ -6779,7 +6818,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>365</v>
       </c>
@@ -6796,7 +6835,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>214</v>
       </c>
@@ -6813,7 +6852,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>214</v>
       </c>
@@ -6830,7 +6869,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>214</v>
       </c>
@@ -6847,7 +6886,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>214</v>
       </c>
@@ -6864,7 +6903,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>214</v>
       </c>
@@ -6881,7 +6920,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>214</v>
       </c>
@@ -6898,7 +6937,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>214</v>
       </c>
@@ -6915,7 +6954,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>214</v>
       </c>
@@ -6932,7 +6971,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>214</v>
       </c>
@@ -6949,7 +6988,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>214</v>
       </c>
@@ -6966,7 +7005,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>214</v>
       </c>
@@ -6983,7 +7022,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>214</v>
       </c>
@@ -7000,7 +7039,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>48</v>
       </c>
@@ -7017,7 +7056,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>48</v>
       </c>
@@ -7034,7 +7073,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>48</v>
       </c>
@@ -7051,7 +7090,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>48</v>
       </c>
@@ -7068,7 +7107,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>48</v>
       </c>
@@ -7085,7 +7124,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>48</v>
       </c>
@@ -7102,7 +7141,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>48</v>
       </c>
@@ -7119,7 +7158,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>48</v>
       </c>
@@ -7136,7 +7175,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>48</v>
       </c>
@@ -7153,7 +7192,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>48</v>
       </c>
@@ -7170,7 +7209,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>48</v>
       </c>
@@ -7187,7 +7226,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>48</v>
       </c>
@@ -7204,7 +7243,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>48</v>
       </c>
@@ -7221,7 +7260,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>48</v>
       </c>
@@ -7238,7 +7277,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>48</v>
       </c>
@@ -7255,7 +7294,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>48</v>
       </c>
@@ -7272,7 +7311,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>48</v>
       </c>
@@ -7289,7 +7328,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>48</v>
       </c>
@@ -7306,7 +7345,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>48</v>
       </c>
@@ -7323,7 +7362,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>48</v>
       </c>
@@ -7340,7 +7379,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>48</v>
       </c>
@@ -7357,7 +7396,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>48</v>
       </c>
@@ -7374,7 +7413,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>48</v>
       </c>
@@ -7391,7 +7430,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>48</v>
       </c>
@@ -7408,7 +7447,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>48</v>
       </c>
@@ -7425,7 +7464,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>48</v>
       </c>
@@ -7442,7 +7481,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>48</v>
       </c>
@@ -7457,6 +7496,210 @@
       </c>
       <c r="E341" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>117</v>
+      </c>
+      <c r="B342">
+        <v>2023</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>117</v>
+      </c>
+      <c r="B343">
+        <v>2023</v>
+      </c>
+      <c r="C343" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>117</v>
+      </c>
+      <c r="B344">
+        <v>2023</v>
+      </c>
+      <c r="C344" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>117</v>
+      </c>
+      <c r="B345">
+        <v>2023</v>
+      </c>
+      <c r="C345" t="s">
+        <v>32</v>
+      </c>
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>117</v>
+      </c>
+      <c r="B346">
+        <v>2023</v>
+      </c>
+      <c r="C346" t="s">
+        <v>27</v>
+      </c>
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>117</v>
+      </c>
+      <c r="B347">
+        <v>2023</v>
+      </c>
+      <c r="C347" t="s">
+        <v>139</v>
+      </c>
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>117</v>
+      </c>
+      <c r="B348">
+        <v>2023</v>
+      </c>
+      <c r="C348" t="s">
+        <v>348</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>117</v>
+      </c>
+      <c r="B349">
+        <v>2023</v>
+      </c>
+      <c r="C349" t="s">
+        <v>442</v>
+      </c>
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>117</v>
+      </c>
+      <c r="B350">
+        <v>2023</v>
+      </c>
+      <c r="C350" t="s">
+        <v>29</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>117</v>
+      </c>
+      <c r="B351">
+        <v>2023</v>
+      </c>
+      <c r="C351" t="s">
+        <v>67</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>117</v>
+      </c>
+      <c r="B352">
+        <v>2023</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>117</v>
+      </c>
+      <c r="B353">
+        <v>2023</v>
+      </c>
+      <c r="C353" t="s">
+        <v>31</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/agwatchlink.xlsx
+++ b/inst/extdata/agwatchlink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25BB42-1FB2-4BEC-BB55-078C83F4EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752E3FB-0AA0-4F19-A21B-92E814DDA6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="475">
   <si>
     <t>state</t>
   </si>
@@ -1369,6 +1369,87 @@
   </si>
   <si>
     <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltbremenwahlprogramm2023burgerschaftswahl.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/csuregierungsprogramm2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/gruneregierungsprogramm2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fwwahlprogramm2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afd-bayern.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdwahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fdp-landtagswahlprogramm-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/linkeoppositionsprogramm2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/wahlprogramm-der-bayernpartei-zur-landtagswahl-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/odpwahlprogramm2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/wahlflyertierschutzbayern.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/pdhwahlprogramm2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/diebasis-by-wahlprogramm-ltw2023-230105.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/cduwahlprogrammltwhessenoffiziell.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/regierungsprogramm-gruene-hessen.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdhessenwahlprogramm2023v3.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afd-hessen-wahlprogramm-zur-ltw23.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fdphe23ltw-programm2023-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/linkewahlprogramm-ltw2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fw-wahlprogramm-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/wpdiepartei2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/oedplandtagswahlhessen2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/pdh-hessen-landtagswahl-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/diebasis-hessen.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/dkp-wahlprogramm-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltlandtagswahlprogrammhessen2023.pdf</t>
+  </si>
+  <si>
+    <t>WKH</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/klimaliste-hessen-wahlprogramm.pdf</t>
   </si>
 </sst>
 </file>
@@ -1686,11 +1767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E353"/>
+  <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A354" sqref="A354"/>
+      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E383" sqref="E383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7702,6 +7783,448 @@
         <v>447</v>
       </c>
     </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>47</v>
+      </c>
+      <c r="B354">
+        <v>2023</v>
+      </c>
+      <c r="C354" t="s">
+        <v>35</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>47</v>
+      </c>
+      <c r="B355">
+        <v>2023</v>
+      </c>
+      <c r="C355" t="s">
+        <v>9</v>
+      </c>
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>47</v>
+      </c>
+      <c r="B356">
+        <v>2023</v>
+      </c>
+      <c r="C356" t="s">
+        <v>45</v>
+      </c>
+      <c r="D356" t="s">
+        <v>7</v>
+      </c>
+      <c r="E356" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>47</v>
+      </c>
+      <c r="B357">
+        <v>2023</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>47</v>
+      </c>
+      <c r="B358">
+        <v>2023</v>
+      </c>
+      <c r="C358" t="s">
+        <v>30</v>
+      </c>
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>47</v>
+      </c>
+      <c r="B359">
+        <v>2023</v>
+      </c>
+      <c r="C359" t="s">
+        <v>27</v>
+      </c>
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+      <c r="E359" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>47</v>
+      </c>
+      <c r="B360">
+        <v>2023</v>
+      </c>
+      <c r="C360" t="s">
+        <v>32</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>47</v>
+      </c>
+      <c r="B361">
+        <v>2023</v>
+      </c>
+      <c r="C361" t="s">
+        <v>49</v>
+      </c>
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>47</v>
+      </c>
+      <c r="B362">
+        <v>2023</v>
+      </c>
+      <c r="C362" t="s">
+        <v>29</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>47</v>
+      </c>
+      <c r="B363">
+        <v>2023</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364">
+        <v>2023</v>
+      </c>
+      <c r="C364" t="s">
+        <v>25</v>
+      </c>
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>47</v>
+      </c>
+      <c r="B365">
+        <v>2023</v>
+      </c>
+      <c r="C365" t="s">
+        <v>348</v>
+      </c>
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>168</v>
+      </c>
+      <c r="B366">
+        <v>2023</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>168</v>
+      </c>
+      <c r="B367">
+        <v>2023</v>
+      </c>
+      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>168</v>
+      </c>
+      <c r="B368">
+        <v>2023</v>
+      </c>
+      <c r="C368" t="s">
+        <v>30</v>
+      </c>
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>168</v>
+      </c>
+      <c r="B369">
+        <v>2023</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>7</v>
+      </c>
+      <c r="E369" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>168</v>
+      </c>
+      <c r="B370">
+        <v>2023</v>
+      </c>
+      <c r="C370" t="s">
+        <v>27</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>168</v>
+      </c>
+      <c r="B371">
+        <v>2023</v>
+      </c>
+      <c r="C371" t="s">
+        <v>32</v>
+      </c>
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>168</v>
+      </c>
+      <c r="B372">
+        <v>2023</v>
+      </c>
+      <c r="C372" t="s">
+        <v>188</v>
+      </c>
+      <c r="D372" t="s">
+        <v>7</v>
+      </c>
+      <c r="E372" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>168</v>
+      </c>
+      <c r="B373">
+        <v>2023</v>
+      </c>
+      <c r="C373" t="s">
+        <v>80</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>168</v>
+      </c>
+      <c r="B374">
+        <v>2023</v>
+      </c>
+      <c r="C374" t="s">
+        <v>29</v>
+      </c>
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>168</v>
+      </c>
+      <c r="B375">
+        <v>2023</v>
+      </c>
+      <c r="C375" t="s">
+        <v>25</v>
+      </c>
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+      <c r="E375" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>168</v>
+      </c>
+      <c r="B376">
+        <v>2023</v>
+      </c>
+      <c r="C376" t="s">
+        <v>348</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>168</v>
+      </c>
+      <c r="B377">
+        <v>2023</v>
+      </c>
+      <c r="C377" t="s">
+        <v>26</v>
+      </c>
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>168</v>
+      </c>
+      <c r="B378">
+        <v>2023</v>
+      </c>
+      <c r="C378" t="s">
+        <v>31</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>168</v>
+      </c>
+      <c r="B379">
+        <v>2023</v>
+      </c>
+      <c r="C379" t="s">
+        <v>473</v>
+      </c>
+      <c r="D379" t="s">
+        <v>7</v>
+      </c>
+      <c r="E379" t="s">
+        <v>474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/inst/extdata/agwatchlink.xlsx
+++ b/inst/extdata/agwatchlink.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au785183\git_projects\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752E3FB-0AA0-4F19-A21B-92E814DDA6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3B0405-B9CC-4D7B-9AE7-4E99B128A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="532">
   <si>
     <t>state</t>
   </si>
@@ -1450,6 +1461,177 @@
   </si>
   <si>
     <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/klimaliste-hessen-wahlprogramm.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/cdusachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/dielinkesachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdsachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afdsachsenltw-2024-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/diegruenensachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fdpsachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/freiewahlersachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/odpsachsenltw-2024-1.pdf</t>
+  </si>
+  <si>
+    <t>BSW</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bswsachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>BündnisC</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bundnis-csachsenltw-2024_0.pdf</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bundnis-deutschlandsachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/busosachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/diebasissachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/freie-sachsensachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>FS (2021)</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/v-parteisachsenltw-2024-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/piratensachsenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/linkethuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afdthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/cduthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/die-grunenthuringenltw2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fdpthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/tierschutz-hierthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/odpthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://piraten-thueringen.de/wahlen/wahlprogramm-unsere-leitlinien/</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bswthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>FW-TH</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/freie-wahlerthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>WU</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/mlpdthuringenltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/240627-eckpunkte-programm-wu-th-final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdbrandenburgltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afdbrandenburgltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/cdubrandenburgltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/grunebrandenburgltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/die-linkebrandenburgltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bvbfwbrandenburgltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/2024-07-15-fdp-wahlprogramm-brandenburg-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/dkpbrandenburgltw2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bswbrandenburgltw-2024.pdf</t>
+  </si>
+  <si>
+    <t>DLW</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/parteiprogramm130624.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/unsere-kernthemen-fuer-brandenburg.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/spdwahlprogramm-buergerschaftswahl-hh-2025pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/bundnis-90die-grunenwahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/cduwahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/die-linkewahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/afdwahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fdpwahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/diewahlwahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
+  </si>
+  <si>
+    <t>WFG</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/fwwahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://www.abgeordnetenwatch.de/sites/default/files/election-program-files/voltwahlprogramm-burgerschaftswahl-hh-2025.pdf</t>
   </si>
 </sst>
 </file>
@@ -1485,11 +1667,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1767,14 +1953,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E383" sqref="E383"/>
+      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E438" sqref="E438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
@@ -8225,6 +8411,839 @@
         <v>474</v>
       </c>
     </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>287</v>
+      </c>
+      <c r="B380">
+        <v>2024</v>
+      </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>287</v>
+      </c>
+      <c r="B381">
+        <v>2024</v>
+      </c>
+      <c r="C381" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>287</v>
+      </c>
+      <c r="B382">
+        <v>2024</v>
+      </c>
+      <c r="C382" t="s">
+        <v>30</v>
+      </c>
+      <c r="D382" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>287</v>
+      </c>
+      <c r="B383">
+        <v>2024</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E383" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>287</v>
+      </c>
+      <c r="B384">
+        <v>2024</v>
+      </c>
+      <c r="C384" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E384" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>287</v>
+      </c>
+      <c r="B385">
+        <v>2024</v>
+      </c>
+      <c r="C385" t="s">
+        <v>27</v>
+      </c>
+      <c r="D385" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E385" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>287</v>
+      </c>
+      <c r="B386">
+        <v>2024</v>
+      </c>
+      <c r="C386" t="s">
+        <v>294</v>
+      </c>
+      <c r="D386" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>287</v>
+      </c>
+      <c r="B387">
+        <v>2024</v>
+      </c>
+      <c r="C387" t="s">
+        <v>29</v>
+      </c>
+      <c r="D387" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E387" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>287</v>
+      </c>
+      <c r="B388">
+        <v>2024</v>
+      </c>
+      <c r="C388" t="s">
+        <v>483</v>
+      </c>
+      <c r="D388" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E388" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>287</v>
+      </c>
+      <c r="B389">
+        <v>2024</v>
+      </c>
+      <c r="C389" t="s">
+        <v>485</v>
+      </c>
+      <c r="D389" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E389" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>287</v>
+      </c>
+      <c r="B390">
+        <v>2024</v>
+      </c>
+      <c r="C390" t="s">
+        <v>487</v>
+      </c>
+      <c r="D390" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E390" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>287</v>
+      </c>
+      <c r="B391">
+        <v>2024</v>
+      </c>
+      <c r="C391" t="s">
+        <v>313</v>
+      </c>
+      <c r="D391" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>287</v>
+      </c>
+      <c r="B392">
+        <v>2024</v>
+      </c>
+      <c r="C392" t="s">
+        <v>348</v>
+      </c>
+      <c r="D392" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>287</v>
+      </c>
+      <c r="B393">
+        <v>2024</v>
+      </c>
+      <c r="C393" t="s">
+        <v>492</v>
+      </c>
+      <c r="D393" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E393" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>287</v>
+      </c>
+      <c r="B394">
+        <v>2024</v>
+      </c>
+      <c r="C394" t="s">
+        <v>69</v>
+      </c>
+      <c r="D394" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E394" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>287</v>
+      </c>
+      <c r="B395">
+        <v>2024</v>
+      </c>
+      <c r="C395" t="s">
+        <v>34</v>
+      </c>
+      <c r="D395" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E395" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>365</v>
+      </c>
+      <c r="B396">
+        <v>2024</v>
+      </c>
+      <c r="C396" t="s">
+        <v>32</v>
+      </c>
+      <c r="D396" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>365</v>
+      </c>
+      <c r="B397">
+        <v>2024</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E397" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>365</v>
+      </c>
+      <c r="B398">
+        <v>2024</v>
+      </c>
+      <c r="C398" t="s">
+        <v>11</v>
+      </c>
+      <c r="D398" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>365</v>
+      </c>
+      <c r="B399">
+        <v>2024</v>
+      </c>
+      <c r="C399" t="s">
+        <v>30</v>
+      </c>
+      <c r="D399" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>365</v>
+      </c>
+      <c r="B400">
+        <v>2024</v>
+      </c>
+      <c r="C400" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>365</v>
+      </c>
+      <c r="B401">
+        <v>2024</v>
+      </c>
+      <c r="C401" t="s">
+        <v>27</v>
+      </c>
+      <c r="D401" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E401" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>365</v>
+      </c>
+      <c r="B402">
+        <v>2024</v>
+      </c>
+      <c r="C402" t="s">
+        <v>166</v>
+      </c>
+      <c r="D402" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E402" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>365</v>
+      </c>
+      <c r="B403">
+        <v>2024</v>
+      </c>
+      <c r="C403" t="s">
+        <v>29</v>
+      </c>
+      <c r="D403" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E403" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>365</v>
+      </c>
+      <c r="B404">
+        <v>2024</v>
+      </c>
+      <c r="C404" t="s">
+        <v>34</v>
+      </c>
+      <c r="D404" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E404" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>365</v>
+      </c>
+      <c r="B405">
+        <v>2024</v>
+      </c>
+      <c r="C405" t="s">
+        <v>483</v>
+      </c>
+      <c r="D405" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E405" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>365</v>
+      </c>
+      <c r="B406">
+        <v>2024</v>
+      </c>
+      <c r="C406" t="s">
+        <v>505</v>
+      </c>
+      <c r="D406" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E406" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>365</v>
+      </c>
+      <c r="B407">
+        <v>2024</v>
+      </c>
+      <c r="C407" t="s">
+        <v>227</v>
+      </c>
+      <c r="D407" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E407" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>365</v>
+      </c>
+      <c r="B408">
+        <v>2024</v>
+      </c>
+      <c r="C408" t="s">
+        <v>507</v>
+      </c>
+      <c r="D408" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E408" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>98</v>
+      </c>
+      <c r="B409">
+        <v>2024</v>
+      </c>
+      <c r="C409" t="s">
+        <v>30</v>
+      </c>
+      <c r="D409" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E409" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>98</v>
+      </c>
+      <c r="B410">
+        <v>2024</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E410" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>98</v>
+      </c>
+      <c r="B411">
+        <v>2024</v>
+      </c>
+      <c r="C411" t="s">
+        <v>11</v>
+      </c>
+      <c r="D411" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E411" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>98</v>
+      </c>
+      <c r="B412">
+        <v>2024</v>
+      </c>
+      <c r="C412" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E412" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>98</v>
+      </c>
+      <c r="B413">
+        <v>2024</v>
+      </c>
+      <c r="C413" t="s">
+        <v>32</v>
+      </c>
+      <c r="D413" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E413" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>98</v>
+      </c>
+      <c r="B414">
+        <v>2024</v>
+      </c>
+      <c r="C414" t="s">
+        <v>106</v>
+      </c>
+      <c r="D414" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E414" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>98</v>
+      </c>
+      <c r="B415">
+        <v>2024</v>
+      </c>
+      <c r="C415" t="s">
+        <v>27</v>
+      </c>
+      <c r="D415" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E415" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>98</v>
+      </c>
+      <c r="B416">
+        <v>2024</v>
+      </c>
+      <c r="C416" t="s">
+        <v>26</v>
+      </c>
+      <c r="D416" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E416" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>98</v>
+      </c>
+      <c r="B417">
+        <v>2024</v>
+      </c>
+      <c r="C417" t="s">
+        <v>483</v>
+      </c>
+      <c r="D417" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E417" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>98</v>
+      </c>
+      <c r="B418">
+        <v>2024</v>
+      </c>
+      <c r="C418" t="s">
+        <v>519</v>
+      </c>
+      <c r="D418" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>98</v>
+      </c>
+      <c r="B419">
+        <v>2024</v>
+      </c>
+      <c r="C419" t="s">
+        <v>507</v>
+      </c>
+      <c r="D419" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E419" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>141</v>
+      </c>
+      <c r="B420">
+        <v>2025</v>
+      </c>
+      <c r="C420" t="s">
+        <v>30</v>
+      </c>
+      <c r="D420" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E420" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>141</v>
+      </c>
+      <c r="B421">
+        <v>2025</v>
+      </c>
+      <c r="C421" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E421" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>141</v>
+      </c>
+      <c r="B422">
+        <v>2025</v>
+      </c>
+      <c r="C422" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E422" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>141</v>
+      </c>
+      <c r="B423">
+        <v>2025</v>
+      </c>
+      <c r="C423" t="s">
+        <v>32</v>
+      </c>
+      <c r="D423" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E423" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>141</v>
+      </c>
+      <c r="B424">
+        <v>2025</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E424" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>141</v>
+      </c>
+      <c r="B425">
+        <v>2025</v>
+      </c>
+      <c r="C425" t="s">
+        <v>27</v>
+      </c>
+      <c r="D425" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E425" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>141</v>
+      </c>
+      <c r="B426">
+        <v>2025</v>
+      </c>
+      <c r="C426" t="s">
+        <v>529</v>
+      </c>
+      <c r="D426" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E426" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>141</v>
+      </c>
+      <c r="B427">
+        <v>2025</v>
+      </c>
+      <c r="C427" t="s">
+        <v>167</v>
+      </c>
+      <c r="D427" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E427" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>141</v>
+      </c>
+      <c r="B428">
+        <v>2025</v>
+      </c>
+      <c r="C428" t="s">
+        <v>31</v>
+      </c>
+      <c r="D428" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E428" t="s">
+        <v>531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
